--- a/TEA.xlsx
+++ b/TEA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UDESC\ThermoPhase - 2024\Testes de Consistência\consistency_tests_2024-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A59FDE-F0D5-4745-B68C-EBB5F32D3004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC1C487-9B6D-4CF4-B067-56FF3E4FB4D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="10245" windowHeight="8715" firstSheet="6" activeTab="7" xr2:uid="{67C29459-63CB-41CA-A6FD-9ED81C58BA0A}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="10245" windowHeight="8715" firstSheet="6" activeTab="7" xr2:uid="{67C29459-63CB-41CA-A6FD-9ED81C58BA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="teacl_10_25_kazemi" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="31">
   <si>
     <t xml:space="preserve">Author </t>
   </si>
@@ -140,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +174,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,15 +218,18 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +548,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,10 +616,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3">
@@ -631,57 +641,45 @@
         <v>274.96947387012835</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I11" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
         <v>3.3423548373434642E-9</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J11" si="1">H2-D2</f>
         <v>0.36947387012833133</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K11" si="2">(H2-D2)/(H2*D2)</f>
         <v>4.8932647526858869E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K11)</f>
         <v>1.1312699441319551E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K11)</f>
         <v>6.0421850689813444E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="3">100*L2/M2</f>
         <v>18.72286153463811</v>
       </c>
       <c r="O2" s="6">
-        <f t="shared" ref="O2:O11" si="4">LN(F2)</f>
         <v>1.1568811967920856</v>
       </c>
       <c r="P2" s="6">
-        <f t="shared" ref="P2:P11" si="5">1/D2</f>
         <v>3.6416605972323375E-3</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q11" si="6">1/H2</f>
         <v>3.6367673324796518E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O11,P2:P11)</f>
         <v>-8075.3896415788195</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O11,Q2:Q11)</f>
         <v>-7948.8078545612452</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="7">100*ABS(S2-R2)/ABS(S2)</f>
         <v>1.5924625344282051</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3">
         <v>2.35</v>
       </c>
@@ -701,33 +699,27 @@
         <v>275.80487857477232</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
         <v>2.9232318787819622E-9</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="1"/>
         <v>0.30487857477231728</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>4.0123920240929345E-6</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="4"/>
         <v>1.235471471385307</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="5"/>
         <v>3.629764065335753E-3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="6"/>
         <v>3.6257516733116603E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3">
         <v>4.3499999999999996</v>
       </c>
@@ -747,33 +739,27 @@
         <v>277.92920105241092</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
         <v>1.7186252421197423E-9</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="1"/>
         <v>0.42920105241091733</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>5.5649800498896658E-6</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="4"/>
         <v>1.4398351280479205</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="5"/>
         <v>3.6036036036036037E-3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="6"/>
         <v>3.5980386235537139E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3">
         <v>5.45</v>
       </c>
@@ -793,33 +779,27 @@
         <v>279.20505452672217</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
         <v>1.2465424248375712E-9</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="1"/>
         <v>0.60505452672214233</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>7.7783973753828185E-6</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="4"/>
         <v>1.5665304114228238</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="5"/>
         <v>3.5893754486719309E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="6"/>
         <v>3.5815970512965479E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3">
         <v>6.65</v>
       </c>
@@ -839,33 +819,27 @@
         <v>280.3273638518487</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="0"/>
         <v>8.9000540270944839E-10</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="1"/>
         <v>0.5273638518486905</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
         <v>6.7235270210815733E-6</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="4"/>
         <v>1.6808279085207734</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="5"/>
         <v>3.5739814152966403E-3</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="6"/>
         <v>3.5672578882755589E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3">
         <v>7.75</v>
       </c>
@@ -885,33 +859,27 @@
         <v>281.39088397389725</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="0"/>
         <v>6.3139360406694323E-10</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="1"/>
         <v>0.49088397389726879</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
         <v>6.2103645016323869E-6</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="4"/>
         <v>1.791759469228055</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="5"/>
         <v>3.55998576005696E-3</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="6"/>
         <v>3.5537753955553275E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>8.5500000000000007</v>
       </c>
@@ -931,33 +899,27 @@
         <v>282.20021686647647</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="0"/>
         <v>3.9581316002568201E-10</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="1"/>
         <v>0.50021686647647812</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
         <v>6.2923683969430079E-6</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="4"/>
         <v>1.8779371654691073</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="5"/>
         <v>3.549875754348598E-3</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="6"/>
         <v>3.5435833859516551E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3">
         <v>9.5500000000000007</v>
       </c>
@@ -977,33 +939,27 @@
         <v>283.11194636906356</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="0"/>
         <v>3.3323210857361119E-10</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="1"/>
         <v>0.41194636906357118</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
         <v>5.1470297120588902E-6</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="4"/>
         <v>1.9768549529047348</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="5"/>
         <v>3.5373187124159888E-3</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" si="6"/>
         <v>3.53217168270393E-3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3">
         <v>9.9499999999999993</v>
       </c>
@@ -1023,34 +979,28 @@
         <v>283.64884678917895</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="0"/>
         <v>1.7828583054324554E-10</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="1"/>
         <v>0.54884678917892415</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
         <v>6.8348696479758075E-6</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="4"/>
         <v>2.0360119837525001</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="5"/>
         <v>3.5323207347227126E-3</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="6"/>
         <v>3.5254858650747367E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10">
         <v>10.25</v>
       </c>
       <c r="D11" s="4">
@@ -1069,36 +1019,27 @@
         <v>283.96047660354412</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="0"/>
         <v>1.9745982626773184E-10</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="1"/>
         <v>0.56047660354414575</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
         <v>6.9646572080704742E-6</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="4"/>
         <v>2.0706530356467567</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="5"/>
         <v>3.5285815102328866E-3</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="6"/>
         <v>3.5216168530248161E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1107,7 +1048,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,283 +1116,228 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9">
-        <f>D2-273.15</f>
+      <c r="C2" s="7">
         <v>2.75</v>
       </c>
       <c r="D2" s="1">
         <v>275.89999999999998</v>
       </c>
-      <c r="E2" s="9">
-        <f>F2*10</f>
+      <c r="E2" s="7">
         <v>35</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>3.5</v>
       </c>
       <c r="G2" s="1">
-        <f>F2*10^6</f>
         <v>3500000</v>
       </c>
       <c r="H2" s="1">
         <v>275.98747179067249</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
         <v>-1.8496315590255108E-11</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J6" si="1">H2-D2</f>
         <v>8.7471790672509542E-2</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K6" si="2">(H2-D2)/(H2*D2)</f>
         <v>1.1487537673511435E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K6)</f>
         <v>1.2981634543067993E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K6)</f>
         <v>9.6819079968689171E-7</v>
       </c>
       <c r="N2">
-        <f>100*L2/M2</f>
         <v>134.08136647514303</v>
       </c>
       <c r="O2" s="6">
-        <f t="shared" ref="O2:O6" si="3">LN(F2)</f>
         <v>1.2527629684953681</v>
       </c>
       <c r="P2" s="6">
-        <f t="shared" ref="P2:P6" si="4">1/D2</f>
         <v>3.6245016310257343E-3</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q6" si="5">1/H2</f>
         <v>3.6233528772583829E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O6,P2:P6)</f>
         <v>-7966.6024062867355</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O6,Q2:Q6)</f>
         <v>-8068.9475745070549</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="6">100*ABS(S2-R2)/ABS(S2)</f>
         <v>1.2683831103782068</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C6" si="7">D3-273.15</f>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7">
         <v>5.4500000000000455</v>
       </c>
       <c r="D3" s="1">
         <v>278.60000000000002</v>
       </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E6" si="8">F3*10</f>
+      <c r="E3" s="7">
         <v>46</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>4.5999999999999996</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G6" si="9">F3*10^6</f>
         <v>4600000</v>
       </c>
       <c r="H3" s="1">
         <v>278.80108720555177</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
         <v>-1.4453327423780138E-11</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="1"/>
         <v>0.20108720555174386</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>2.588861779141235E-6</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="3"/>
         <v>1.5260563034950492</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="4"/>
         <v>3.5893754486719309E-3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="5"/>
         <v>3.5867865868927894E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
-        <f t="shared" si="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7">
         <v>9.0500000000000114</v>
       </c>
       <c r="D4" s="1">
         <v>282.2</v>
       </c>
-      <c r="E4" s="9">
-        <f t="shared" si="8"/>
+      <c r="E4" s="7">
         <v>65</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>6.5</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="9"/>
         <v>6500000</v>
       </c>
       <c r="H4" s="1">
         <v>282.14307294960298</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
         <v>3.240963053485757E-12</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="1"/>
         <v>-5.6927050397007406E-2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>-7.1497734433948161E-7</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="3"/>
         <v>1.8718021769015913</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="4"/>
         <v>3.5435861091424525E-3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="5"/>
         <v>3.5443010864867918E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
-        <f t="shared" si="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7">
         <v>10.050000000000011</v>
       </c>
       <c r="D5" s="1">
         <v>283.2</v>
       </c>
-      <c r="E5" s="9">
-        <f t="shared" si="8"/>
+      <c r="E5" s="7">
         <v>74</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>7.4</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="9"/>
         <v>7400000</v>
       </c>
       <c r="H5" s="1">
         <v>283.33617681645228</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
         <v>-4.7461590213515592E-11</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="1"/>
         <v>0.1361768164522914</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>1.697101817293258E-6</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="3"/>
         <v>2.0014800002101243</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="4"/>
         <v>3.5310734463276836E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="5"/>
         <v>3.5293763445103906E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
-        <f t="shared" si="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7">
         <v>11.100000000000023</v>
       </c>
       <c r="D6" s="1">
         <v>284.25</v>
       </c>
-      <c r="E6" s="9">
-        <f t="shared" si="8"/>
+      <c r="E6" s="7">
         <v>82</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="9"/>
         <v>8199999.9999999991</v>
       </c>
       <c r="H6" s="1">
         <v>284.25979419210978</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="0"/>
         <v>1.3184120462028659E-10</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="1"/>
         <v>9.7941921097799423E-3</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
         <v>1.2121397898830379E-7</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="3"/>
         <v>2.1041341542702074</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="4"/>
         <v>3.5180299032541778E-3</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="5"/>
         <v>3.5179086892751892E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1461,10 +1347,13 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1529,283 +1418,228 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9">
-        <f t="shared" ref="C2:C6" si="0">D2-273.15</f>
+      <c r="C2" s="7">
         <v>2.5</v>
       </c>
       <c r="D2" s="1">
         <v>275.64999999999998</v>
       </c>
-      <c r="E2" s="9">
-        <f t="shared" ref="E2:E6" si="1">F2*10</f>
+      <c r="E2" s="7">
         <v>35</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>3.5</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G6" si="2">F2*10^6</f>
         <v>3500000</v>
       </c>
       <c r="H2" s="1">
         <v>275.98747179061019</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="3">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
         <v>-1.8496315590255108E-11</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J6" si="4">H2-D2</f>
         <v>0.33747179061020915</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K6" si="5">(H2-D2)/(H2*D2)</f>
         <v>4.4359854289908071E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K6)</f>
         <v>1.5285229825523811E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K6)</f>
         <v>3.5145720464400402E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="6">100*L2/M2</f>
         <v>43.491012912956037</v>
       </c>
       <c r="O2" s="6">
-        <f t="shared" ref="O2:O6" si="7">LN(F2)</f>
         <v>1.2527629684953681</v>
       </c>
       <c r="P2" s="6">
-        <f t="shared" ref="P2:P6" si="8">1/D2</f>
         <v>3.627788862688192E-3</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q6" si="9">1/H2</f>
         <v>3.6233528772592009E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O6,P2:P6)</f>
         <v>-7886.8931164537116</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O6,Q2:Q6)</f>
         <v>-8068.947574446157</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="10">100*ABS(S2-R2)/ABS(S2)</f>
         <v>2.2562354794446828</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9">
-        <f t="shared" si="0"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7">
         <v>5.25</v>
       </c>
       <c r="D3" s="1">
         <v>278.39999999999998</v>
       </c>
-      <c r="E3" s="9">
-        <f t="shared" si="1"/>
+      <c r="E3" s="7">
         <v>46</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>4.5999999999999996</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="2"/>
         <v>4600000</v>
       </c>
       <c r="H3" s="1">
         <v>278.80108720563538</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="3"/>
         <v>-3.3720581882334955E-11</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="4"/>
         <v>0.40108720563540601</v>
       </c>
       <c r="K3">
-        <f t="shared" si="5"/>
         <v>5.1674360967922159E-6</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="7"/>
         <v>1.5260563034950492</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="8"/>
         <v>3.5919540229885061E-3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="9"/>
         <v>3.5867865868917138E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7">
         <v>8.8500000000000227</v>
       </c>
       <c r="D4" s="1">
         <v>282</v>
       </c>
-      <c r="E4" s="9">
-        <f t="shared" si="1"/>
+      <c r="E4" s="7">
         <v>65</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>6.5</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="2"/>
         <v>6500000</v>
       </c>
       <c r="H4" s="1">
         <v>282.14307294955125</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="3"/>
         <v>1.6852297335390176E-11</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="4"/>
         <v>0.14307294955125371</v>
       </c>
       <c r="K4">
-        <f t="shared" si="5"/>
         <v>1.7982042927002535E-6</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="7"/>
         <v>1.8718021769015913</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="8"/>
         <v>3.5460992907801418E-3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="9"/>
         <v>3.5443010864874415E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
-        <f t="shared" si="0"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7">
         <v>9.8500000000000227</v>
       </c>
       <c r="D5" s="1">
         <v>283</v>
       </c>
-      <c r="E5" s="9">
-        <f t="shared" si="1"/>
+      <c r="E5" s="7">
         <v>74</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>7.4</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="2"/>
         <v>7400000</v>
       </c>
       <c r="H5" s="1">
         <v>283.33617681652862</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="3"/>
         <v>-9.7077901273223688E-13</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="4"/>
         <v>0.33617681652862075</v>
       </c>
       <c r="K5">
-        <f t="shared" si="5"/>
         <v>4.1925600842000141E-6</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="7"/>
         <v>2.0014800002101243</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="8"/>
         <v>3.5335689045936395E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="9"/>
         <v>3.5293763445094395E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
-        <f t="shared" si="0"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7">
         <v>10.950000000000045</v>
       </c>
       <c r="D6" s="1">
         <v>284.10000000000002</v>
       </c>
-      <c r="E6" s="9">
-        <f t="shared" si="1"/>
+      <c r="E6" s="7">
         <v>82</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
         <v>8199999.9999999991</v>
       </c>
       <c r="H6" s="1">
         <v>284.25979419213741</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="3"/>
         <v>-3.9882763758214423E-11</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="4"/>
         <v>0.15979419213738311</v>
       </c>
       <c r="K6">
-        <f t="shared" si="5"/>
         <v>1.9786743295169113E-6</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="7"/>
         <v>2.1041341542702074</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="8"/>
         <v>3.5198873636043643E-3</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="9"/>
         <v>3.5179086892748474E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1815,7 +1649,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,23 +1717,22 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9">
-        <f>D2-273.15</f>
+      <c r="C2" s="7">
         <v>1.9000000000000341</v>
       </c>
       <c r="D2" s="1">
         <v>275.05</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>35</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>3.5</v>
       </c>
       <c r="G2" s="1">
@@ -1909,68 +1742,55 @@
         <v>275.98747179068999</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
         <v>-1.8496315590255108E-11</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J6" si="1">H2-D2</f>
         <v>0.93747179068998321</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K6" si="2">(H2-D2)/(H2*D2)</f>
         <v>1.234972226920525E-5</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K6)</f>
         <v>1.5569433668326303E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K6)</f>
         <v>1.0131411069608364E-5</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="3">100*L2/M2</f>
         <v>15.36748786655258</v>
       </c>
       <c r="O2" s="6">
-        <f t="shared" ref="O2:O6" si="4">LN(F2)</f>
         <v>1.2527629684953681</v>
       </c>
       <c r="P2" s="6">
-        <f t="shared" ref="P2:P6" si="5">1/D2</f>
         <v>3.6357025995273585E-3</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q6" si="6">1/H2</f>
         <v>3.6233528772581531E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O6,P2:P6)</f>
         <v>-7858.1811920462251</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O6,Q2:Q6)</f>
         <v>-8068.9475743194525</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="7">100*ABS(S2-R2)/ABS(S2)</f>
         <v>2.6120678109747644</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C6" si="8">D3-273.15</f>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7">
         <v>4.8500000000000227</v>
       </c>
       <c r="D3" s="1">
         <v>278</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>46</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>4.5999999999999996</v>
       </c>
       <c r="G3" s="1">
@@ -1980,44 +1800,37 @@
         <v>278.80108720550709</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
         <v>1.4446221996422537E-11</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="1"/>
         <v>0.80108720550708767</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>1.0335715264909028E-5</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="4"/>
         <v>1.5260563034950492</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="5"/>
         <v>3.5971223021582736E-3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="6"/>
         <v>3.5867865868933644E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
-        <f t="shared" si="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7">
         <v>8.3500000000000227</v>
       </c>
       <c r="D4" s="1">
         <v>281.5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>65</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>6.5</v>
       </c>
       <c r="G4" s="1">
@@ -2027,44 +1840,37 @@
         <v>282.14307294964749</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
         <v>-1.0371259406838362E-11</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="1"/>
         <v>0.64307294964748962</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>8.0967820750461951E-6</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="4"/>
         <v>1.8718021769015913</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="5"/>
         <v>3.552397868561279E-3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="6"/>
         <v>3.5443010864862328E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
-        <f t="shared" si="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7">
         <v>9.3500000000000227</v>
       </c>
       <c r="D5" s="1">
         <v>282.5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>74</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>7.4</v>
       </c>
       <c r="G5" s="1">
@@ -2074,769 +1880,671 @@
         <v>283.33617681664259</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
         <v>-1.404432126150823E-10</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="1"/>
         <v>0.8361768166425918</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>1.0446664341537641E-5</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="4"/>
         <v>2.0014800002101243</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="5"/>
         <v>3.5398230088495575E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="6"/>
         <v>3.5293763445080201E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
-        <f t="shared" si="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7">
         <v>10.350000000000023</v>
       </c>
       <c r="D6" s="1">
         <v>283.5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>82</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" s="1">
-        <f>F6*10^6</f>
         <v>8199999.9999999991</v>
       </c>
       <c r="H6" s="1">
         <v>284.25979419229878</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="0"/>
         <v>-1.9443291421339381E-10</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="1"/>
         <v>0.75979419229878431</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
         <v>9.4281713973437058E-6</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="4"/>
         <v>2.1041341542702074</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="5"/>
         <v>3.5273368606701938E-3</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="6"/>
         <v>3.5179086892728503E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628D5F10-A547-4ADF-AA94-73DA885E8747}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9">
-        <f t="shared" ref="B2:B6" si="0">C2-273.15</f>
+      <c r="C2" s="1">
         <v>2.8500000000000227</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="7">
         <v>276</v>
       </c>
-      <c r="D2" s="9">
-        <f>10*E2</f>
+      <c r="E2" s="7">
         <v>35</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2" s="1">
         <v>3.5</v>
       </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F6" si="1">E2*10^6</f>
+      <c r="G2" s="1">
         <v>3500000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="5">
         <v>275.98747179055164</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H6" si="2">E2-10^(-4646.471 +5314653/G2 -2271392000/G2^2 +430306500000/G2^3 -30511740000000/G2^4)</f>
+      <c r="I2" s="5">
         <v>4.014077958913731E-11</v>
       </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="3">G2-C2</f>
+      <c r="J2">
         <v>-1.2528209448362304E-2</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J6" si="4">(G2-C2)/(G2*C2)</f>
+      <c r="K2">
         <v>-1.6447146286825758E-7</v>
       </c>
-      <c r="K2">
-        <f>_xlfn.STDEV.S(J2:J6)</f>
+      <c r="L2">
         <v>1.3218022751126862E-6</v>
       </c>
-      <c r="L2">
-        <f>AVERAGE(J2:J6)</f>
+      <c r="M2">
         <v>-5.1491566024903149E-8</v>
       </c>
-      <c r="M2">
-        <f>100*ABS(K2/L2)</f>
+      <c r="N2" s="6">
         <v>2567.0267524460523</v>
       </c>
-      <c r="N2" s="6">
-        <f t="shared" ref="N2:N6" si="5">LN(E2)</f>
+      <c r="O2" s="6">
         <v>1.2527629684953681</v>
       </c>
-      <c r="O2" s="6">
-        <f t="shared" ref="O2:O6" si="6">1/C2</f>
+      <c r="P2" s="6">
         <v>3.6231884057971015E-3</v>
       </c>
-      <c r="P2" s="6">
-        <f t="shared" ref="P2:P6" si="7">1/G2</f>
+      <c r="Q2">
         <v>3.6233528772599698E-3</v>
       </c>
-      <c r="Q2">
-        <f>SLOPE(N2:N6,O2:O6)</f>
+      <c r="R2">
         <v>-8017.137149594897</v>
       </c>
-      <c r="R2">
-        <f>SLOPE(N2:N6,P2:P6)</f>
+      <c r="S2">
         <v>-8068.9475744217234</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2" si="8">100*ABS(R2-Q2)/ABS(R2)</f>
+      <c r="T2">
         <v>0.6420964363563797</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9">
-        <f t="shared" si="0"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1">
         <v>5.5500000000000114</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="7">
         <v>278.7</v>
       </c>
-      <c r="D3" s="9">
-        <f t="shared" ref="D3:D6" si="9">10*E3</f>
+      <c r="E3" s="7">
         <v>46</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" si="1"/>
+      <c r="G3" s="1">
         <v>4600000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="5">
         <v>278.80108720561282</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" si="2"/>
+      <c r="I3" s="5">
         <v>-4.8210324621322798E-12</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" si="3"/>
+      <c r="J3">
         <v>0.1010872056128278</v>
       </c>
-      <c r="J3">
-        <f t="shared" si="4"/>
+      <c r="K3">
         <v>1.3009624441998022E-6</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" si="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>1.5260563034950492</v>
       </c>
-      <c r="O3" s="6">
-        <f t="shared" si="6"/>
+      <c r="P3" s="6">
         <v>3.5880875493362039E-3</v>
       </c>
-      <c r="P3" s="6">
-        <f t="shared" si="7"/>
+      <c r="Q3">
         <v>3.586786586892004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9">
-        <f t="shared" si="0"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1">
         <v>9.1500000000000341</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="7">
         <v>282.3</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" si="9"/>
+      <c r="E4" s="7">
         <v>65</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="1">
         <v>6.5</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="1"/>
+      <c r="G4" s="1">
         <v>6500000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="5">
         <v>282.14307294956831</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="2"/>
+      <c r="I4" s="5">
         <v>1.6852297335390176E-11</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" si="3"/>
+      <c r="J4">
         <v>-0.15692705043170463</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
+      <c r="K4">
         <v>-1.97023278549177E-6</v>
       </c>
-      <c r="N4" s="6">
-        <f t="shared" si="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
         <v>1.8718021769015913</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" si="6"/>
+      <c r="P4" s="6">
         <v>3.5423308537017354E-3</v>
       </c>
-      <c r="P4" s="6">
-        <f t="shared" si="7"/>
+      <c r="Q4">
         <v>3.5443010864872272E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1">
         <v>10.100000000000023</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="7">
         <v>283.25</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" si="9"/>
+      <c r="E5" s="7">
         <v>74</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="1">
         <v>7.4</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
+      <c r="G5" s="1">
         <v>7400000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="5">
         <v>283.33617681645541</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="2"/>
+      <c r="I5" s="5">
         <v>7.6515682678746089E-11</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="3"/>
+      <c r="J5">
         <v>8.6176816455406424E-2</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
+      <c r="K5">
         <v>1.073787881528409E-6</v>
       </c>
-      <c r="N5" s="6">
-        <f t="shared" si="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
         <v>2.0014800002101243</v>
       </c>
-      <c r="O5" s="6">
-        <f t="shared" si="6"/>
+      <c r="P5" s="6">
         <v>3.5304501323918801E-3</v>
       </c>
-      <c r="P5" s="6">
-        <f t="shared" si="7"/>
+      <c r="Q5">
         <v>3.5293763445103515E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9">
-        <f t="shared" si="0"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="1">
         <v>11.150000000000034</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="7">
         <v>284.3</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="9"/>
+      <c r="E6" s="7">
         <v>82</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
+      <c r="G6" s="1">
         <v>8199999.9999999991</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="5">
         <v>284.25979419212007</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="2"/>
+      <c r="I6" s="5">
         <v>-5.5351279115711804E-12</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="3"/>
+      <c r="J6">
         <v>-4.0205807879942768E-2</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
+      <c r="K6">
         <v>-4.9750390749269936E-7</v>
       </c>
-      <c r="N6" s="6">
-        <f t="shared" si="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
         <v>2.1041341542702074</v>
       </c>
-      <c r="O6" s="6">
-        <f t="shared" si="6"/>
+      <c r="P6" s="6">
         <v>3.5174111853675692E-3</v>
       </c>
-      <c r="P6" s="6">
-        <f t="shared" si="7"/>
+      <c r="Q6">
         <v>3.5179086892750621E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFDDCD3-D8DA-4155-AB04-EDB5B726CC29}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9">
-        <f t="shared" ref="B2:B6" si="0">C2-273.15</f>
+      <c r="C2" s="1">
         <v>2.6500000000000341</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="7">
         <v>275.8</v>
       </c>
-      <c r="D2" s="9">
-        <f t="shared" ref="D2:D6" si="1">10*E2</f>
+      <c r="E2" s="7">
         <v>35</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2" s="1">
         <v>3.5</v>
       </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F6" si="2">E2*10^6</f>
+      <c r="G2" s="1">
         <v>3500000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="5">
         <v>275.98747179067544</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H6" si="3">E2-10^(-4646.471 +5314653/G2 -2271392000/G2^2 +430306500000/G2^3 -30511740000000/G2^4)</f>
+      <c r="I2" s="5">
         <v>-1.8496315590255108E-11</v>
       </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="4">G2-C2</f>
+      <c r="J2">
         <v>0.18747179067543129</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J6" si="5">(G2-C2)/(G2*C2)</f>
+      <c r="K2">
         <v>2.4629312985808486E-6</v>
       </c>
-      <c r="K2">
-        <f>_xlfn.STDEV.S(J2:J6)</f>
+      <c r="L2">
         <v>1.2111651139506739E-6</v>
       </c>
-      <c r="L2">
-        <f>AVERAGE(J2:J6)</f>
+      <c r="M2">
         <v>2.3110643410225242E-6</v>
       </c>
-      <c r="M2">
-        <f t="shared" ref="M2" si="6">100*K2/L2</f>
+      <c r="N2" s="6">
         <v>52.407243383574389</v>
       </c>
-      <c r="N2" s="6">
-        <f t="shared" ref="N2:N6" si="7">LN(E2)</f>
+      <c r="O2" s="6">
         <v>1.2527629684953681</v>
       </c>
-      <c r="O2" s="6">
-        <f t="shared" ref="O2:O6" si="8">1/C2</f>
+      <c r="P2" s="6">
         <v>3.6258158085569251E-3</v>
       </c>
-      <c r="P2" s="6">
-        <f t="shared" ref="P2:P6" si="9">1/G2</f>
+      <c r="Q2">
         <v>3.6233528772583443E-3</v>
       </c>
-      <c r="Q2">
-        <f>SLOPE(N2:N6,O2:O6)</f>
+      <c r="R2">
         <v>-7979.683583677328</v>
       </c>
-      <c r="R2">
-        <f>SLOPE(N2:N6,P2:P6)</f>
+      <c r="S2">
         <v>-8068.947574528328</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2" si="10">100*ABS(R2-Q2)/ABS(R2)</f>
+      <c r="T2">
         <v>1.1062655944473399</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9">
-        <f t="shared" si="0"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1">
         <v>5.3500000000000227</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="7">
         <v>278.5</v>
       </c>
-      <c r="D3" s="9">
-        <f t="shared" si="1"/>
+      <c r="E3" s="7">
         <v>46</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" si="2"/>
+      <c r="G3" s="1">
         <v>4600000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="5">
         <v>278.80108720566875</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" si="3"/>
+      <c r="I3" s="5">
         <v>-3.3720581882334955E-11</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" si="4"/>
+      <c r="J3">
         <v>0.30108720566875036</v>
       </c>
-      <c r="J3">
-        <f t="shared" si="5"/>
+      <c r="K3">
         <v>3.8776859992001843E-6</v>
       </c>
-      <c r="N3" s="6">
-        <f t="shared" si="7"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>1.5260563034950492</v>
       </c>
-      <c r="O3" s="6">
-        <f t="shared" si="8"/>
+      <c r="P3" s="6">
         <v>3.5906642728904849E-3</v>
       </c>
-      <c r="P3" s="6">
-        <f t="shared" si="9"/>
+      <c r="Q3">
         <v>3.5867865868912845E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9">
-        <f t="shared" si="0"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1">
         <v>8.9500000000000455</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="7">
         <v>282.10000000000002</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" si="1"/>
+      <c r="E4" s="7">
         <v>65</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="1">
         <v>6.5</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="2"/>
+      <c r="G4" s="1">
         <v>6500000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="5">
         <v>282.14307294956262</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="3"/>
+      <c r="I4" s="5">
         <v>7.1302075355106354E-11</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" si="4"/>
+      <c r="J4">
         <v>4.3072949562599661E-2</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="5"/>
+      <c r="K4">
         <v>5.4116803237481248E-7</v>
       </c>
-      <c r="N4" s="6">
-        <f t="shared" si="7"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
         <v>1.8718021769015913</v>
       </c>
-      <c r="O4" s="6">
-        <f t="shared" si="8"/>
+      <c r="P4" s="6">
         <v>3.5448422545196734E-3</v>
       </c>
-      <c r="P4" s="6">
-        <f t="shared" si="9"/>
+      <c r="Q4">
         <v>3.5443010864872988E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="1">
         <v>9.9700000000000273</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="7">
         <v>283.12</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" si="1"/>
+      <c r="E5" s="7">
         <v>74</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="1">
         <v>7.4</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="2"/>
+      <c r="G5" s="1">
         <v>7400000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="5">
         <v>283.33617681643796</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="3"/>
+      <c r="I5" s="5">
         <v>3.0022206942703633E-11</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="4"/>
+      <c r="J5">
         <v>0.21617681643795095</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="5"/>
+      <c r="K5">
         <v>2.6948620449551696E-6</v>
       </c>
-      <c r="N5" s="6">
-        <f t="shared" si="7"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
         <v>2.0014800002101243</v>
       </c>
-      <c r="O5" s="6">
-        <f t="shared" si="8"/>
+      <c r="P5" s="6">
         <v>3.5320712065555239E-3</v>
       </c>
-      <c r="P5" s="6">
-        <f t="shared" si="9"/>
+      <c r="Q5">
         <v>3.5293763445105688E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9">
-        <f t="shared" si="0"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="1">
         <v>10.950000000000045</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="7">
         <v>284.10000000000002</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="1"/>
+      <c r="E6" s="7">
         <v>82</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
+      <c r="G6" s="1">
         <v>8199999.9999999991</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="5">
         <v>284.25979419217657</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="3"/>
+      <c r="I6" s="5">
         <v>-1.0856915366730391E-10</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="4"/>
+      <c r="J6">
         <v>0.15979419217654822</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
+      <c r="K6">
         <v>1.9786743300016065E-6</v>
       </c>
-      <c r="N6" s="6">
-        <f t="shared" si="7"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
         <v>2.1041341542702074</v>
       </c>
-      <c r="O6" s="6">
-        <f t="shared" si="8"/>
+      <c r="P6" s="6">
         <v>3.5198873636043643E-3</v>
       </c>
-      <c r="P6" s="6">
-        <f t="shared" si="9"/>
+      <c r="Q6">
         <v>3.5179086892743626E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2846,7 +2554,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,23 +2625,22 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9">
-        <f>D2-273.15</f>
+      <c r="C2" s="7">
         <v>6.2200000000000273</v>
       </c>
       <c r="D2" s="1">
         <v>279.37</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>51</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>5.0999999999999996</v>
       </c>
       <c r="G2" s="1">
@@ -2943,68 +2650,55 @@
         <v>279.82419073259433</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I5" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
         <v>1.2740919430598296E-11</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J5" si="1">H2-D2</f>
         <v>0.45419073259432707</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="2">(H2-D2)/(H2*D2)</f>
         <v>5.8099613632996608E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K5)</f>
         <v>1.4066273604415709E-6</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2" si="3">AVERAGE(K2:K5)</f>
         <v>3.937187636125564E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="4">100*L2/M2</f>
         <v>35.726703689077397</v>
       </c>
       <c r="O2" s="6">
-        <f t="shared" ref="O2:O5" si="5">LN(F2)</f>
         <v>1.62924053973028</v>
       </c>
       <c r="P2" s="6">
-        <f t="shared" ref="P2:P5" si="6">1/D2</f>
         <v>3.5794824068439701E-3</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q5" si="7">1/H2</f>
         <v>3.5736724454806705E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O5,P2:P5)</f>
         <v>-8536.300918768562</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O5,Q2:Q5)</f>
         <v>-8823.2348143704912</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="8">100*ABS(S2-R2)/ABS(S2)</f>
         <v>3.2520260611742651</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C5" si="9">D3-273.15</f>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7">
         <v>9.4800000000000182</v>
       </c>
       <c r="D3" s="1">
         <v>282.63</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>71</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>7.1</v>
       </c>
       <c r="G3" s="1">
@@ -3014,44 +2708,37 @@
         <v>282.95871911953571</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
         <v>-1.4567902439921454E-11</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="1"/>
         <v>0.32871911953571953</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>4.11039563402171E-6</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="5"/>
         <v>1.9600947840472698</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="6"/>
         <v>3.5381948130064041E-3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="7"/>
         <v>3.5340844173723826E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
-        <f t="shared" si="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7">
         <v>12.29000000000002</v>
       </c>
       <c r="D4" s="1">
         <v>285.44</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>96</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>9.6</v>
       </c>
       <c r="G4" s="1">
@@ -3061,44 +2748,37 @@
         <v>285.64574188155984</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
         <v>-1.8346213437325787E-10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="1"/>
         <v>0.2057418815598453</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>2.5233652625533906E-6</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="5"/>
         <v>2.2617630984737906</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="6"/>
         <v>3.5033632286995517E-3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="7"/>
         <v>3.5008398634369981E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
-        <f t="shared" si="9"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7">
         <v>13.470000000000027</v>
       </c>
       <c r="D5" s="1">
         <v>286.62</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>111</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>11.1</v>
       </c>
       <c r="G5" s="1">
@@ -3108,35 +2788,25 @@
         <v>286.89176890245767</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
         <v>8.709477583579428E-12</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="1"/>
         <v>0.27176890245766572</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>3.3050282846274945E-6</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="5"/>
         <v>2.4069451083182885</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="6"/>
         <v>3.4889400600097691E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="7"/>
         <v>3.4856350317251416E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3146,7 +2816,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,10 +2884,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3">
@@ -3239,57 +2909,45 @@
         <v>275.98747179048382</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I6" si="0">F2-10^(-4646.471 +5314653/H2 -2271392000/H2^2 +430306500000/H2^3 -30511740000000/H2^4)</f>
         <v>6.212941272565331E-11</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J6" si="1">H2-D2</f>
         <v>0.4874717904838235</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K6" si="2">(H2-D2)/(H2*D2)</f>
         <v>6.4111880748931584E-6</v>
       </c>
       <c r="L2">
-        <f>_xlfn.STDEV.S(K2:K6)</f>
         <v>1.508863239570453E-6</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(K2:K6)</f>
         <v>6.9339921988300845E-6</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2" si="3">100*L2/M2</f>
         <v>21.760382710338657</v>
       </c>
       <c r="O2" s="6">
-        <f t="shared" ref="O2:O6" si="4">LN(F2)</f>
         <v>1.2527629684953681</v>
       </c>
       <c r="P2" s="6">
-        <f t="shared" ref="P2:P6" si="5">1/D2</f>
         <v>3.629764065335753E-3</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q6" si="6">1/H2</f>
         <v>3.6233528772608601E-3</v>
       </c>
       <c r="R2">
-        <f>SLOPE(O2:O6,P2:P6)</f>
         <v>-7995.6646886905964</v>
       </c>
       <c r="S2">
-        <f>SLOPE(O2:O6,Q2:Q6)</f>
         <v>-8068.9475742774639</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2" si="7">100*ABS(S2-R2)/ABS(S2)</f>
         <v>0.90820872130191754</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3">
         <v>4.95</v>
       </c>
@@ -3309,33 +2967,27 @@
         <v>278.80108720554932</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="0"/>
         <v>6.2612137696760328E-11</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="1"/>
         <v>0.7010872055492996</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
         <v>9.0422516544638547E-6</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="4"/>
         <v>1.5260563034950492</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="5"/>
         <v>3.5958288385472847E-3</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="6"/>
         <v>3.586786586892821E-3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3">
         <v>8.5500000000000007</v>
       </c>
@@ -3355,33 +3007,27 @@
         <v>282.14307294960162</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
         <v>1.6852297335390176E-11</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="1"/>
         <v>0.44307294960162835</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
         <v>5.5746678617890183E-6</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="4"/>
         <v>1.8718021769015913</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="5"/>
         <v>3.549875754348598E-3</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="6"/>
         <v>3.5443010864868087E-3</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3">
         <v>9.5500000000000007</v>
       </c>
@@ -3401,33 +3047,27 @@
         <v>283.33617681651492</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="0"/>
         <v>3.0022206942703633E-11</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="1"/>
         <v>0.63617681651493285</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
         <v>7.9423679063786168E-6</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="4"/>
         <v>2.0014800002101243</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="5"/>
         <v>3.5373187124159888E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="6"/>
         <v>3.5293763445096104E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3">
         <v>10.65</v>
       </c>
@@ -3447,35 +3087,25 @@
         <v>284.25979419217845</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="0"/>
         <v>-9.1398888457661087E-11</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="1"/>
         <v>0.45979419217843542</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
         <v>5.6994854966257694E-6</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="4"/>
         <v>2.1041341542702074</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="5"/>
         <v>3.5236081747709652E-3</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="6"/>
         <v>3.5179086892743396E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>